--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="90">
   <si>
     <t>Jun Allard</t>
   </si>
@@ -154,43 +154,100 @@
     <t>Jin Yu</t>
   </si>
   <si>
-    <t>Monday, Feb. 10 1:00 - 1:30</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 1:45 - 2:15</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 2:30 - 3:00</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 3:15 - 3:45</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 4:00 - 4:30</t>
-  </si>
-  <si>
-    <t>Monday, Feb. 10 4:45 - 5:15</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 1:00 - 1:30</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 1:45 - 2:15</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 2:30 - 3:00</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 3:15 - 3:45</t>
-  </si>
-  <si>
-    <t>Tuesday, Feb. 11 3:45 - 4:15</t>
-  </si>
-  <si>
-    <t>Ogawa, Alyssa</t>
-  </si>
-  <si>
-    <t>Janeway, Kathryn</t>
+    <t>Wednesday, Feb 10th, 12:00-12:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 12:30-1:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 1:00-1:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 1:30-2:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 2:00-2:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 2:30-3:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 3:00-3:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 3:30-4:00</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th, 4:00-4:30</t>
+  </si>
+  <si>
+    <t>Wednesday, Feb 10th,4:30-5:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 12:00-12:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 12:30-1:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th 1:00-1:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 1:30-2:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 2:00-2:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 2:30-3:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 3:00-3:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 3:30-4:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 4:00-4:30</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th,4:30-5:00</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 7:00pm-7:30pm</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 7:30pm-8:00pm</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 8:00pm-8:30pm</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 11th, 8:30pm-9pm</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 12:00-12:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 12:30-1:00</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th 1:00-1:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 1:30-2:00</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 2:00-2:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 2:30-3:00</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 3:00-3:30</t>
+  </si>
+  <si>
+    <t>Friday, Feb 12th, 3:30-4:00</t>
   </si>
   <si>
     <t>open</t>
@@ -199,76 +256,34 @@
     <t>Bashir, Julian</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>McCoy, Leonard</t>
+  </si>
+  <si>
+    <t>Troi, Lwaxana</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>O'Brien, Miles</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
     <t>Chekov, Pavel</t>
   </si>
   <si>
     <t>Uhura, Nyota</t>
   </si>
   <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
-    <t>Rozhenko, Alexander</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Troi, Lwaxana</t>
-  </si>
-  <si>
-    <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Sulu, Hikaru</t>
-  </si>
-  <si>
     <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Worf</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
-    <t>Picard, Jean-Luc</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
-    <t>Laren, Ro</t>
   </si>
 </sst>
 </file>
@@ -626,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AU12"/>
+  <dimension ref="A1:AU33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,142 +792,142 @@
         <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AG2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AN2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AP2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AQ2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AT2" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AU2" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -920,142 +935,142 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AP3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AQ3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AT3" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AU3" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -1063,142 +1078,142 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AN4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AP4" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="AQ4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AR4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AT4" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AU4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1206,142 +1221,142 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
         <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ5" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AO5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AP5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AQ5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR5" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AS5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AT5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AU5" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1349,142 +1364,142 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="AK6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AM6" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AN6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO6" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AP6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AQ6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AR6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AS6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="AT6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AU6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1492,139 +1507,139 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="N7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AK7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AN7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AP7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AQ7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AU7" t="s">
         <v>78</v>
@@ -1635,142 +1650,142 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N8" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AN8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO8" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AP8" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AQ8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="s">
         <v>78</v>
       </c>
       <c r="AT8" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AU8" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1778,142 +1793,142 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AG9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO9" t="s">
         <v>78</v>
       </c>
       <c r="AP9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AQ9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR9" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AT9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AU9" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -1921,142 +1936,142 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AG10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ10" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO10" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AP10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="AQ10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR10" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS10" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="AT10" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="AU10" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2064,142 +2079,142 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="O11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="W11" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AG11" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AK11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AP11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AQ11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AR11" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="AS11" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AT11" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AU11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:47">
@@ -2207,142 +2222,3145 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" t="s">
+        <v>80</v>
+      </c>
+      <c r="M12" t="s">
+        <v>78</v>
+      </c>
+      <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>78</v>
+      </c>
+      <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" t="s">
+        <v>80</v>
+      </c>
+      <c r="V12" t="s">
+        <v>78</v>
+      </c>
+      <c r="W12" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" t="s">
+        <v>80</v>
+      </c>
+      <c r="V13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s">
+        <v>80</v>
+      </c>
+      <c r="V14" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" t="s">
+        <v>78</v>
+      </c>
+      <c r="V16" t="s">
+        <v>80</v>
+      </c>
+      <c r="W16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+      <c r="M17" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S17" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s">
+        <v>80</v>
+      </c>
+      <c r="W17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s">
+        <v>80</v>
+      </c>
+      <c r="T18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
+      <c r="A19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s">
+        <v>78</v>
+      </c>
+      <c r="W19" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" t="s">
+        <v>80</v>
+      </c>
+      <c r="M20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>78</v>
+      </c>
+      <c r="R20" t="s">
+        <v>80</v>
+      </c>
+      <c r="S20" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s">
+        <v>78</v>
+      </c>
+      <c r="V20" t="s">
+        <v>78</v>
+      </c>
+      <c r="W20" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>80</v>
+      </c>
+      <c r="R21" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" t="s">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47">
+      <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47">
+      <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L23" t="s">
+        <v>80</v>
+      </c>
+      <c r="M23" t="s">
+        <v>78</v>
+      </c>
+      <c r="N23" t="s">
+        <v>80</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s">
+        <v>78</v>
+      </c>
+      <c r="W23" t="s">
+        <v>78</v>
+      </c>
+      <c r="X23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" t="s">
+        <v>80</v>
+      </c>
+      <c r="M24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" t="s">
+        <v>78</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>78</v>
+      </c>
+      <c r="R24" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" t="s">
+        <v>78</v>
+      </c>
+      <c r="V24" t="s">
+        <v>78</v>
+      </c>
+      <c r="W24" t="s">
+        <v>78</v>
+      </c>
+      <c r="X24" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47">
+      <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" t="s">
+        <v>80</v>
+      </c>
+      <c r="M25" t="s">
+        <v>78</v>
+      </c>
+      <c r="N25" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" t="s">
+        <v>78</v>
+      </c>
+      <c r="P25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>80</v>
+      </c>
+      <c r="R25" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" t="s">
+        <v>80</v>
+      </c>
+      <c r="V25" t="s">
+        <v>78</v>
+      </c>
+      <c r="W25" t="s">
+        <v>78</v>
+      </c>
+      <c r="X25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>78</v>
+      </c>
+      <c r="K26" t="s">
+        <v>80</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" t="s">
+        <v>80</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R26" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" t="s">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47">
+      <c r="A27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" t="s">
+        <v>80</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" t="s">
+        <v>80</v>
+      </c>
+      <c r="M28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" t="s">
+        <v>80</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:47">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" t="s">
+        <v>80</v>
+      </c>
+      <c r="N29" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" t="s">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47">
+      <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="B30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" t="s">
+        <v>80</v>
+      </c>
+      <c r="N30" t="s">
+        <v>80</v>
+      </c>
+      <c r="O30" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>78</v>
+      </c>
+      <c r="R30" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" t="s">
+        <v>80</v>
+      </c>
+      <c r="U30" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" t="s">
+        <v>80</v>
+      </c>
+      <c r="X30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47">
+      <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O12" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>83</v>
-      </c>
-      <c r="R12" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" t="s">
-        <v>69</v>
-      </c>
-      <c r="T12" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" t="s">
-        <v>69</v>
-      </c>
-      <c r="V12" t="s">
-        <v>69</v>
-      </c>
-      <c r="W12" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I31" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
+      </c>
+      <c r="L31" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" t="s">
+        <v>80</v>
+      </c>
+      <c r="N31" t="s">
+        <v>80</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>78</v>
+      </c>
+      <c r="R31" t="s">
+        <v>80</v>
+      </c>
+      <c r="S31" t="s">
+        <v>80</v>
+      </c>
+      <c r="T31" t="s">
+        <v>80</v>
+      </c>
+      <c r="U31" t="s">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s">
+        <v>80</v>
+      </c>
+      <c r="W31" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47">
+      <c r="A32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" t="s">
+        <v>78</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R32" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" t="s">
+        <v>80</v>
+      </c>
+      <c r="U32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47">
+      <c r="A33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="Y12" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AP12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AT12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU12" t="s">
-        <v>64</v>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
+        <v>78</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J33" t="s">
+        <v>78</v>
+      </c>
+      <c r="K33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L33" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" t="s">
+        <v>78</v>
+      </c>
+      <c r="N33" t="s">
+        <v>80</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>80</v>
+      </c>
+      <c r="R33" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" t="s">
+        <v>80</v>
+      </c>
+      <c r="U33" t="s">
+        <v>80</v>
+      </c>
+      <c r="V33" t="s">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="106">
   <si>
     <t>Jun Allard</t>
   </si>
@@ -253,37 +253,85 @@
     <t>open</t>
   </si>
   <si>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Ogawa, Alyssa</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Troi, Lwaxana</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
+    <t>Chekov, Pavel</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Rozhenko, Alexander</t>
+  </si>
+  <si>
     <t>Bashir, Julian</t>
   </si>
   <si>
-    <t>...</t>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Laren, Ro</t>
   </si>
   <si>
     <t>McCoy, Leonard</t>
   </si>
   <si>
-    <t>Troi, Lwaxana</t>
+    <t>Sulu, Hikaru</t>
+  </si>
+  <si>
+    <t>Uhura, Nyota</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
   </si>
   <si>
     <t>Crusher, Wesley</t>
   </si>
   <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
     <t>O'Brien, Miles</t>
   </si>
   <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>Chekov, Pavel</t>
-  </si>
-  <si>
-    <t>Uhura, Nyota</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
+    <t>Dax, Jadzia</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
+    <t>Worf</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
   </si>
 </sst>
 </file>
@@ -798,79 +846,79 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
         <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
         <v>78</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V2" t="s">
         <v>78</v>
       </c>
       <c r="W2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC2" t="s">
         <v>78</v>
@@ -879,52 +927,52 @@
         <v>78</v>
       </c>
       <c r="AE2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG2" t="s">
         <v>78</v>
       </c>
       <c r="AH2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s">
         <v>78</v>
       </c>
       <c r="AL2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s">
         <v>78</v>
       </c>
       <c r="AN2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP2" t="s">
         <v>78</v>
       </c>
       <c r="AQ2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS2" t="s">
         <v>78</v>
       </c>
       <c r="AT2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU2" t="s">
         <v>78</v>
@@ -935,139 +983,139 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J3" t="s">
         <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M3" t="s">
         <v>78</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
         <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V3" t="s">
         <v>78</v>
       </c>
       <c r="W3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y3" t="s">
         <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="s">
         <v>78</v>
       </c>
       <c r="AD3" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AE3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AF3" t="s">
         <v>78</v>
       </c>
       <c r="AG3" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK3" t="s">
         <v>78</v>
       </c>
       <c r="AL3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AN3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP3" t="s">
         <v>78</v>
       </c>
       <c r="AQ3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS3" t="s">
         <v>78</v>
       </c>
       <c r="AT3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU3" t="s">
         <v>78</v>
@@ -1081,16 +1129,16 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
@@ -1099,28 +1147,28 @@
         <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s">
         <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q4" t="s">
         <v>78</v>
@@ -1129,22 +1177,22 @@
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V4" t="s">
         <v>78</v>
       </c>
       <c r="W4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y4" t="s">
         <v>78</v>
@@ -1153,10 +1201,10 @@
         <v>78</v>
       </c>
       <c r="AA4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="s">
         <v>78</v>
@@ -1174,28 +1222,28 @@
         <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="s">
         <v>78</v>
       </c>
       <c r="AK4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AM4" t="s">
         <v>78</v>
       </c>
       <c r="AN4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP4" t="s">
         <v>78</v>
@@ -1204,13 +1252,13 @@
         <v>78</v>
       </c>
       <c r="AR4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS4" t="s">
         <v>78</v>
       </c>
       <c r="AT4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU4" t="s">
         <v>78</v>
@@ -1224,73 +1272,73 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
         <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q5" t="s">
         <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T5" t="s">
         <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z5" t="s">
         <v>78</v>
@@ -1299,16 +1347,16 @@
         <v>78</v>
       </c>
       <c r="AB5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD5" t="s">
         <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s">
         <v>78</v>
@@ -1317,16 +1365,16 @@
         <v>78</v>
       </c>
       <c r="AH5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="s">
         <v>78</v>
@@ -1338,22 +1386,22 @@
         <v>78</v>
       </c>
       <c r="AO5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ5" t="s">
         <v>78</v>
       </c>
       <c r="AR5" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="s">
         <v>78</v>
       </c>
       <c r="AT5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU5" t="s">
         <v>78</v>
@@ -1367,91 +1415,91 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q6" t="s">
         <v>78</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U6" t="s">
         <v>78</v>
       </c>
       <c r="V6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z6" t="s">
         <v>78</v>
       </c>
       <c r="AA6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD6" t="s">
         <v>78</v>
       </c>
       <c r="AE6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s">
         <v>78</v>
@@ -1460,16 +1508,16 @@
         <v>78</v>
       </c>
       <c r="AH6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AK6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="s">
         <v>78</v>
@@ -1478,13 +1526,13 @@
         <v>78</v>
       </c>
       <c r="AN6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO6" t="s">
         <v>78</v>
       </c>
       <c r="AP6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ6" t="s">
         <v>78</v>
@@ -1496,7 +1544,7 @@
         <v>78</v>
       </c>
       <c r="AT6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU6" t="s">
         <v>78</v>
@@ -1510,91 +1558,91 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q7" t="s">
         <v>78</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U7" t="s">
         <v>78</v>
       </c>
       <c r="V7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z7" t="s">
         <v>78</v>
       </c>
       <c r="AA7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD7" t="s">
         <v>78</v>
       </c>
       <c r="AE7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF7" t="s">
         <v>78</v>
@@ -1603,43 +1651,43 @@
         <v>78</v>
       </c>
       <c r="AH7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ7" t="s">
         <v>78</v>
       </c>
       <c r="AK7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="s">
         <v>78</v>
       </c>
       <c r="AN7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS7" t="s">
         <v>78</v>
       </c>
       <c r="AT7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU7" t="s">
         <v>78</v>
@@ -1650,28 +1698,28 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>78</v>
@@ -1680,7 +1728,7 @@
         <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M8" t="s">
         <v>78</v>
@@ -1698,16 +1746,16 @@
         <v>78</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
         <v>78</v>
@@ -1719,16 +1767,16 @@
         <v>78</v>
       </c>
       <c r="Y8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC8" t="s">
         <v>78</v>
@@ -1737,34 +1785,34 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG8" t="s">
         <v>78</v>
       </c>
       <c r="AH8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="s">
         <v>78</v>
       </c>
       <c r="AL8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM8" t="s">
         <v>78</v>
       </c>
       <c r="AN8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO8" t="s">
         <v>78</v>
@@ -1773,13 +1821,13 @@
         <v>78</v>
       </c>
       <c r="AQ8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR8" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS8" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AT8" t="s">
         <v>78</v>
@@ -1796,22 +1844,22 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
         <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I9" t="s">
         <v>78</v>
@@ -1823,13 +1871,13 @@
         <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M9" t="s">
         <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O9" t="s">
         <v>78</v>
@@ -1838,19 +1886,19 @@
         <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V9" t="s">
         <v>78</v>
@@ -1865,25 +1913,25 @@
         <v>78</v>
       </c>
       <c r="Z9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC9" t="s">
         <v>78</v>
       </c>
       <c r="AD9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG9" t="s">
         <v>78</v>
@@ -1892,22 +1940,22 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AJ9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="s">
         <v>78</v>
       </c>
       <c r="AL9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AN9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO9" t="s">
         <v>78</v>
@@ -1916,10 +1964,10 @@
         <v>78</v>
       </c>
       <c r="AQ9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR9" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS9" t="s">
         <v>78</v>
@@ -1939,34 +1987,34 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M10" t="s">
         <v>78</v>
@@ -1975,28 +2023,28 @@
         <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
         <v>78</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U10" t="s">
         <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="W10" t="s">
         <v>78</v>
@@ -2005,52 +2053,52 @@
         <v>78</v>
       </c>
       <c r="Y10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC10" t="s">
         <v>78</v>
       </c>
       <c r="AD10" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AE10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK10" t="s">
         <v>78</v>
       </c>
       <c r="AL10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="s">
         <v>78</v>
       </c>
       <c r="AN10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO10" t="s">
         <v>78</v>
@@ -2059,19 +2107,19 @@
         <v>78</v>
       </c>
       <c r="AQ10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AT10" t="s">
         <v>78</v>
       </c>
       <c r="AU10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2079,25 +2127,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s">
         <v>78</v>
@@ -2109,13 +2157,13 @@
         <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M11" t="s">
         <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O11" t="s">
         <v>78</v>
@@ -2124,22 +2172,22 @@
         <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s">
         <v>78</v>
@@ -2151,25 +2199,25 @@
         <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC11" t="s">
         <v>78</v>
       </c>
       <c r="AD11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s">
         <v>78</v>
@@ -2181,31 +2229,31 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK11" t="s">
         <v>78</v>
       </c>
       <c r="AL11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM11" t="s">
         <v>78</v>
       </c>
       <c r="AN11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO11" t="s">
         <v>78</v>
       </c>
       <c r="AP11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AQ11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR11" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS11" t="s">
         <v>78</v>
@@ -2228,79 +2276,79 @@
         <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M12" t="s">
         <v>78</v>
       </c>
       <c r="N12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q12" t="s">
         <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V12" t="s">
         <v>78</v>
       </c>
       <c r="W12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC12" t="s">
         <v>78</v>
@@ -2309,52 +2357,52 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG12" t="s">
         <v>78</v>
       </c>
       <c r="AH12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="s">
         <v>78</v>
       </c>
       <c r="AL12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM12" t="s">
         <v>78</v>
       </c>
       <c r="AN12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AQ12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS12" t="s">
         <v>78</v>
       </c>
       <c r="AT12" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU12" t="s">
         <v>78</v>
@@ -2371,79 +2419,79 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M13" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
         <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V13" t="s">
         <v>78</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y13" t="s">
         <v>78</v>
       </c>
       <c r="Z13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC13" t="s">
         <v>78</v>
@@ -2455,52 +2503,52 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG13" t="s">
         <v>78</v>
       </c>
       <c r="AH13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AL13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="s">
         <v>78</v>
       </c>
       <c r="AN13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP13" t="s">
         <v>78</v>
       </c>
       <c r="AQ13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS13" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AT13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2514,13 +2562,13 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -2529,28 +2577,28 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M14" t="s">
         <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q14" t="s">
         <v>78</v>
@@ -2559,22 +2607,22 @@
         <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V14" t="s">
         <v>78</v>
       </c>
       <c r="W14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y14" t="s">
         <v>78</v>
@@ -2583,16 +2631,16 @@
         <v>78</v>
       </c>
       <c r="AA14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC14" t="s">
         <v>78</v>
       </c>
       <c r="AD14" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AE14" t="s">
         <v>78</v>
@@ -2604,16 +2652,16 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ14" t="s">
         <v>78</v>
       </c>
       <c r="AK14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL14" t="s">
         <v>78</v>
@@ -2622,25 +2670,25 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP14" t="s">
         <v>78</v>
       </c>
       <c r="AQ14" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AR14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS14" t="s">
         <v>78</v>
       </c>
       <c r="AT14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU14" t="s">
         <v>78</v>
@@ -2654,46 +2702,46 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s">
         <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q15" t="s">
         <v>78</v>
@@ -2702,25 +2750,25 @@
         <v>78</v>
       </c>
       <c r="S15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T15" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="U15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z15" t="s">
         <v>78</v>
@@ -2729,10 +2777,10 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD15" t="s">
         <v>78</v>
@@ -2747,16 +2795,16 @@
         <v>78</v>
       </c>
       <c r="AH15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="s">
         <v>78</v>
       </c>
       <c r="AK15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL15" t="s">
         <v>78</v>
@@ -2768,10 +2816,10 @@
         <v>78</v>
       </c>
       <c r="AO15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ15" t="s">
         <v>78</v>
@@ -2783,7 +2831,7 @@
         <v>78</v>
       </c>
       <c r="AT15" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU15" t="s">
         <v>78</v>
@@ -2797,91 +2845,91 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U16" t="s">
         <v>78</v>
       </c>
       <c r="V16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z16" t="s">
         <v>78</v>
       </c>
       <c r="AA16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD16" t="s">
         <v>78</v>
       </c>
       <c r="AE16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF16" t="s">
         <v>78</v>
@@ -2890,16 +2938,16 @@
         <v>78</v>
       </c>
       <c r="AH16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ16" t="s">
         <v>78</v>
       </c>
       <c r="AK16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL16" t="s">
         <v>78</v>
@@ -2908,16 +2956,16 @@
         <v>78</v>
       </c>
       <c r="AN16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO16" t="s">
         <v>78</v>
       </c>
       <c r="AP16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR16" t="s">
         <v>78</v>
@@ -2926,7 +2974,7 @@
         <v>78</v>
       </c>
       <c r="AT16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU16" t="s">
         <v>78</v>
@@ -2940,136 +2988,136 @@
         <v>78</v>
       </c>
       <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
+      </c>
+      <c r="N17" t="s">
+        <v>85</v>
+      </c>
+      <c r="O17" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" t="s">
+        <v>85</v>
+      </c>
+      <c r="U17" t="s">
+        <v>78</v>
+      </c>
+      <c r="V17" t="s">
+        <v>85</v>
+      </c>
+      <c r="W17" t="s">
+        <v>85</v>
+      </c>
+      <c r="X17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM17" t="s">
         <v>80</v>
       </c>
-      <c r="D17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L17" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" t="s">
-        <v>80</v>
-      </c>
-      <c r="S17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T17" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" t="s">
-        <v>78</v>
-      </c>
-      <c r="V17" t="s">
-        <v>80</v>
-      </c>
-      <c r="W17" t="s">
-        <v>80</v>
-      </c>
-      <c r="X17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>78</v>
-      </c>
       <c r="AN17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS17" t="s">
         <v>78</v>
       </c>
       <c r="AT17" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU17" t="s">
         <v>78</v>
@@ -3083,130 +3131,130 @@
         <v>78</v>
       </c>
       <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" t="s">
+        <v>78</v>
+      </c>
+      <c r="N18" t="s">
+        <v>78</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>85</v>
+      </c>
+      <c r="T18" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s">
+        <v>101</v>
+      </c>
+      <c r="X18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP18" t="s">
         <v>80</v>
       </c>
-      <c r="D18" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G18" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" t="s">
-        <v>80</v>
-      </c>
-      <c r="M18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s">
-        <v>80</v>
-      </c>
-      <c r="S18" t="s">
-        <v>80</v>
-      </c>
-      <c r="T18" t="s">
-        <v>80</v>
-      </c>
-      <c r="U18" t="s">
-        <v>78</v>
-      </c>
-      <c r="V18" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s">
-        <v>78</v>
-      </c>
-      <c r="X18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>78</v>
-      </c>
       <c r="AQ18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR18" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS18" t="s">
         <v>78</v>
@@ -3223,25 +3271,25 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I19" t="s">
         <v>78</v>
@@ -3253,13 +3301,13 @@
         <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M19" t="s">
         <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O19" t="s">
         <v>78</v>
@@ -3268,19 +3316,19 @@
         <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V19" t="s">
         <v>78</v>
@@ -3295,25 +3343,25 @@
         <v>78</v>
       </c>
       <c r="Z19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC19" t="s">
         <v>78</v>
       </c>
       <c r="AD19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG19" t="s">
         <v>78</v>
@@ -3325,19 +3373,19 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK19" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM19" t="s">
         <v>78</v>
       </c>
       <c r="AN19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO19" t="s">
         <v>78</v>
@@ -3346,10 +3394,10 @@
         <v>78</v>
       </c>
       <c r="AQ19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR19" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS19" t="s">
         <v>78</v>
@@ -3369,25 +3417,25 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J20" t="s">
         <v>78</v>
@@ -3396,10 +3444,10 @@
         <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N20" t="s">
         <v>78</v>
@@ -3414,73 +3462,73 @@
         <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U20" t="s">
         <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="W20" t="s">
         <v>78</v>
       </c>
       <c r="X20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC20" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AD20" t="s">
         <v>78</v>
       </c>
       <c r="AE20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG20" t="s">
         <v>78</v>
       </c>
       <c r="AH20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK20" t="s">
         <v>78</v>
       </c>
       <c r="AL20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="s">
         <v>78</v>
       </c>
       <c r="AN20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO20" t="s">
         <v>78</v>
@@ -3489,19 +3537,19 @@
         <v>78</v>
       </c>
       <c r="AQ20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR20" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS20" t="s">
         <v>78</v>
       </c>
       <c r="AT20" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AU20" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:47">
@@ -3509,25 +3557,25 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s">
         <v>78</v>
@@ -3539,13 +3587,13 @@
         <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O21" t="s">
         <v>78</v>
@@ -3554,19 +3602,19 @@
         <v>78</v>
       </c>
       <c r="Q21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V21" t="s">
         <v>78</v>
@@ -3581,28 +3629,28 @@
         <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AD21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG21" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AH21" t="s">
         <v>78</v>
@@ -3611,19 +3659,19 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK21" t="s">
         <v>78</v>
       </c>
       <c r="AL21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO21" t="s">
         <v>78</v>
@@ -3632,10 +3680,10 @@
         <v>78</v>
       </c>
       <c r="AQ21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS21" t="s">
         <v>78</v>
@@ -3644,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="AU21" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:47">
@@ -3655,58 +3703,58 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>78</v>
+      </c>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+      <c r="L22" t="s">
+        <v>85</v>
+      </c>
+      <c r="M22" t="s">
+        <v>78</v>
+      </c>
+      <c r="N22" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" t="s">
-        <v>80</v>
-      </c>
-      <c r="J22" t="s">
-        <v>78</v>
-      </c>
-      <c r="K22" t="s">
-        <v>78</v>
-      </c>
-      <c r="L22" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" t="s">
-        <v>78</v>
-      </c>
-      <c r="N22" t="s">
-        <v>78</v>
-      </c>
-      <c r="O22" t="s">
-        <v>78</v>
-      </c>
-      <c r="P22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>78</v>
-      </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U22" t="s">
         <v>78</v>
@@ -3721,52 +3769,52 @@
         <v>78</v>
       </c>
       <c r="Y22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC22" t="s">
         <v>78</v>
       </c>
       <c r="AD22" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AE22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG22" t="s">
         <v>78</v>
       </c>
       <c r="AH22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK22" t="s">
         <v>78</v>
       </c>
       <c r="AL22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="s">
         <v>78</v>
       </c>
       <c r="AN22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO22" t="s">
         <v>78</v>
@@ -3775,16 +3823,16 @@
         <v>78</v>
       </c>
       <c r="AQ22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS22" t="s">
         <v>78</v>
       </c>
       <c r="AT22" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AU22" t="s">
         <v>78</v>
@@ -3798,22 +3846,22 @@
         <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
         <v>78</v>
@@ -3825,13 +3873,13 @@
         <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
         <v>78</v>
@@ -3840,22 +3888,22 @@
         <v>78</v>
       </c>
       <c r="Q23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="W23" t="s">
         <v>78</v>
@@ -3864,64 +3912,64 @@
         <v>78</v>
       </c>
       <c r="Y23" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Z23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC23" t="s">
         <v>78</v>
       </c>
       <c r="AD23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG23" t="s">
         <v>78</v>
       </c>
       <c r="AH23" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s">
         <v>78</v>
       </c>
       <c r="AJ23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK23" t="s">
         <v>78</v>
       </c>
       <c r="AL23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM23" t="s">
         <v>78</v>
       </c>
       <c r="AN23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO23" t="s">
         <v>78</v>
       </c>
       <c r="AP23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AQ23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS23" t="s">
         <v>78</v>
@@ -3941,25 +3989,25 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s">
         <v>78</v>
@@ -3968,7 +4016,7 @@
         <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M24" t="s">
         <v>78</v>
@@ -3977,7 +4025,7 @@
         <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s">
         <v>78</v>
@@ -3986,13 +4034,13 @@
         <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U24" t="s">
         <v>78</v>
@@ -4001,58 +4049,58 @@
         <v>78</v>
       </c>
       <c r="W24" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="X24" t="s">
         <v>78</v>
       </c>
       <c r="Y24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC24" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AD24" t="s">
         <v>78</v>
       </c>
       <c r="AE24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG24" t="s">
         <v>78</v>
       </c>
       <c r="AH24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AL24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM24" t="s">
         <v>78</v>
       </c>
       <c r="AN24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO24" t="s">
         <v>78</v>
@@ -4061,10 +4109,10 @@
         <v>78</v>
       </c>
       <c r="AQ24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS24" t="s">
         <v>78</v>
@@ -4084,61 +4132,61 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" t="s">
-        <v>80</v>
-      </c>
-      <c r="I25" t="s">
-        <v>78</v>
-      </c>
-      <c r="J25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25" t="s">
-        <v>78</v>
-      </c>
       <c r="L25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M25" t="s">
         <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O25" t="s">
         <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="Q25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V25" t="s">
         <v>78</v>
@@ -4153,25 +4201,25 @@
         <v>78</v>
       </c>
       <c r="Z25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC25" t="s">
         <v>78</v>
       </c>
       <c r="AD25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG25" t="s">
         <v>78</v>
@@ -4183,19 +4231,19 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="s">
         <v>78</v>
       </c>
       <c r="AL25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM25" t="s">
         <v>78</v>
       </c>
       <c r="AN25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO25" t="s">
         <v>78</v>
@@ -4204,10 +4252,10 @@
         <v>78</v>
       </c>
       <c r="AQ25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS25" t="s">
         <v>78</v>
@@ -4224,85 +4272,85 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J26" t="s">
         <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M26" t="s">
         <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q26" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V26" t="s">
         <v>78</v>
       </c>
       <c r="W26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC26" t="s">
         <v>78</v>
@@ -4311,52 +4359,52 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s">
         <v>78</v>
       </c>
       <c r="AH26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="s">
         <v>78</v>
       </c>
       <c r="AL26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM26" t="s">
         <v>78</v>
       </c>
       <c r="AN26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP26" t="s">
         <v>78</v>
       </c>
       <c r="AQ26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS26" t="s">
         <v>78</v>
       </c>
       <c r="AT26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU26" t="s">
         <v>78</v>
@@ -4373,85 +4421,85 @@
         <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J27" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="N27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q27" t="s">
         <v>78</v>
       </c>
       <c r="R27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V27" t="s">
         <v>78</v>
       </c>
       <c r="W27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y27" t="s">
         <v>78</v>
       </c>
       <c r="Z27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC27" t="s">
         <v>78</v>
       </c>
       <c r="AD27" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AE27" t="s">
         <v>78</v>
@@ -4463,43 +4511,43 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK27" t="s">
         <v>78</v>
       </c>
       <c r="AL27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="s">
         <v>78</v>
       </c>
       <c r="AN27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP27" t="s">
         <v>78</v>
       </c>
       <c r="AQ27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS27" t="s">
         <v>78</v>
       </c>
       <c r="AT27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU27" t="s">
         <v>78</v>
@@ -4516,13 +4564,13 @@
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
         <v>78</v>
@@ -4531,28 +4579,28 @@
         <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M28" t="s">
         <v>78</v>
       </c>
       <c r="N28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q28" t="s">
         <v>78</v>
@@ -4561,22 +4609,22 @@
         <v>78</v>
       </c>
       <c r="S28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V28" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="W28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y28" t="s">
         <v>78</v>
@@ -4585,37 +4633,37 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC28" t="s">
         <v>78</v>
       </c>
       <c r="AD28" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AE28" t="s">
         <v>78</v>
       </c>
       <c r="AF28" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG28" t="s">
         <v>78</v>
       </c>
       <c r="AH28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ28" t="s">
         <v>78</v>
       </c>
       <c r="AK28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL28" t="s">
         <v>78</v>
@@ -4624,10 +4672,10 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP28" t="s">
         <v>78</v>
@@ -4636,13 +4684,13 @@
         <v>78</v>
       </c>
       <c r="AR28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS28" t="s">
         <v>78</v>
       </c>
       <c r="AT28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU28" t="s">
         <v>78</v>
@@ -4656,46 +4704,46 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
         <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q29" t="s">
         <v>78</v>
@@ -4704,25 +4752,25 @@
         <v>78</v>
       </c>
       <c r="S29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T29" t="s">
         <v>78</v>
       </c>
       <c r="U29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z29" t="s">
         <v>78</v>
@@ -4731,10 +4779,10 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD29" t="s">
         <v>78</v>
@@ -4749,31 +4797,31 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="s">
         <v>78</v>
       </c>
       <c r="AK29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL29" t="s">
         <v>78</v>
       </c>
       <c r="AM29" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AN29" t="s">
         <v>78</v>
       </c>
       <c r="AO29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ29" t="s">
         <v>78</v>
@@ -4785,7 +4833,7 @@
         <v>78</v>
       </c>
       <c r="AT29" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU29" t="s">
         <v>78</v>
@@ -4799,127 +4847,127 @@
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q30" t="s">
         <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U30" t="s">
         <v>78</v>
       </c>
       <c r="V30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z30" t="s">
         <v>78</v>
       </c>
       <c r="AA30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD30" t="s">
         <v>78</v>
       </c>
       <c r="AE30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF30" t="s">
         <v>78</v>
       </c>
       <c r="AG30" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="s">
         <v>78</v>
       </c>
       <c r="AK30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL30" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AM30" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AN30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO30" t="s">
         <v>78</v>
       </c>
       <c r="AP30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR30" t="s">
         <v>78</v>
@@ -4928,7 +4976,7 @@
         <v>78</v>
       </c>
       <c r="AT30" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU30" t="s">
         <v>78</v>
@@ -4942,91 +4990,91 @@
         <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="N31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q31" t="s">
         <v>78</v>
       </c>
       <c r="R31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U31" t="s">
         <v>78</v>
       </c>
       <c r="V31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="W31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Y31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Z31" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AA31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AD31" t="s">
         <v>78</v>
       </c>
       <c r="AE31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF31" t="s">
         <v>78</v>
@@ -5035,43 +5083,43 @@
         <v>78</v>
       </c>
       <c r="AH31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ31" t="s">
         <v>78</v>
       </c>
       <c r="AK31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AL31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM31" t="s">
         <v>78</v>
       </c>
       <c r="AN31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AP31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AQ31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS31" t="s">
         <v>78</v>
       </c>
       <c r="AT31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AU31" t="s">
         <v>78</v>
@@ -5085,130 +5133,130 @@
         <v>78</v>
       </c>
       <c r="C32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" t="s">
+        <v>90</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N32" t="s">
+        <v>87</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R32" t="s">
+        <v>85</v>
+      </c>
+      <c r="S32" t="s">
+        <v>85</v>
+      </c>
+      <c r="T32" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO32" t="s">
         <v>80</v>
       </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" t="s">
-        <v>78</v>
-      </c>
-      <c r="K32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N32" t="s">
-        <v>78</v>
-      </c>
-      <c r="O32" t="s">
-        <v>78</v>
-      </c>
-      <c r="P32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>78</v>
-      </c>
-      <c r="R32" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" t="s">
-        <v>80</v>
-      </c>
-      <c r="T32" t="s">
-        <v>80</v>
-      </c>
-      <c r="U32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>78</v>
-      </c>
       <c r="AP32" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AQ32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR32" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS32" t="s">
         <v>78</v>
@@ -5217,7 +5265,7 @@
         <v>78</v>
       </c>
       <c r="AU32" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:47">
@@ -5228,22 +5276,22 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E33" t="s">
         <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
         <v>78</v>
@@ -5255,34 +5303,34 @@
         <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M33" t="s">
         <v>78</v>
       </c>
       <c r="N33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O33" t="s">
         <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="Q33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="R33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="S33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="T33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="U33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="V33" t="s">
         <v>78</v>
@@ -5291,31 +5339,31 @@
         <v>78</v>
       </c>
       <c r="X33" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Y33" t="s">
         <v>78</v>
       </c>
       <c r="Z33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AA33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AC33" t="s">
         <v>78</v>
       </c>
       <c r="AD33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AE33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AF33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AG33" t="s">
         <v>78</v>
@@ -5327,34 +5375,34 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK33" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM33" t="s">
         <v>78</v>
       </c>
       <c r="AN33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AO33" t="s">
         <v>78</v>
       </c>
       <c r="AP33" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AQ33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AR33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AS33" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AT33" t="s">
         <v>78</v>

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
@@ -253,85 +253,85 @@
     <t>open</t>
   </si>
   <si>
+    <t>Troi, Deanna</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>O'Brien, Miles</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Chekov, Pavel</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Rozhenko, Alexander</t>
+  </si>
+  <si>
     <t>Janeway, Kathryn</t>
   </si>
   <si>
+    <t>McCoy, Leonard</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Uhura, Nyota</t>
+  </si>
+  <si>
+    <t>Troi, Lwaxana</t>
+  </si>
+  <si>
+    <t>Laren, Ro</t>
+  </si>
+  <si>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Sulu, Hikaru</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
     <t>Ogawa, Alyssa</t>
   </si>
   <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>Troi, Lwaxana</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Chekov, Pavel</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Rozhenko, Alexander</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Laren, Ro</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
-    <t>Sulu, Hikaru</t>
-  </si>
-  <si>
-    <t>Uhura, Nyota</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
     <t>Dax, Jadzia</t>
   </si>
   <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
     <t>Worf</t>
-  </si>
-  <si>
-    <t>Picard, Jean-Luc</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
   </si>
 </sst>
 </file>
@@ -846,133 +846,133 @@
         <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s">
         <v>78</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="R2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V2" t="s">
         <v>78</v>
       </c>
       <c r="W2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC2" t="s">
         <v>78</v>
       </c>
       <c r="AD2" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AE2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG2" t="s">
         <v>78</v>
       </c>
       <c r="AH2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s">
         <v>78</v>
       </c>
       <c r="AL2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
         <v>78</v>
       </c>
       <c r="AN2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
         <v>78</v>
       </c>
       <c r="AQ2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS2" t="s">
         <v>78</v>
       </c>
       <c r="AT2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU2" t="s">
         <v>78</v>
@@ -983,139 +983,139 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
         <v>78</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q3" t="s">
         <v>78</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="W3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="s">
         <v>78</v>
       </c>
       <c r="Z3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC3" t="s">
         <v>78</v>
       </c>
       <c r="AD3" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s">
         <v>78</v>
       </c>
       <c r="AG3" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK3" t="s">
         <v>78</v>
       </c>
       <c r="AL3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="AN3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
         <v>78</v>
       </c>
       <c r="AQ3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS3" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AT3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU3" t="s">
         <v>78</v>
@@ -1129,70 +1129,70 @@
         <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
         <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
         <v>78</v>
       </c>
       <c r="S4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V4" t="s">
         <v>78</v>
       </c>
       <c r="W4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y4" t="s">
         <v>78</v>
@@ -1201,10 +1201,10 @@
         <v>78</v>
       </c>
       <c r="AA4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC4" t="s">
         <v>78</v>
@@ -1222,43 +1222,43 @@
         <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ4" t="s">
         <v>78</v>
       </c>
       <c r="AK4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>96</v>
       </c>
-      <c r="AM4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>78</v>
-      </c>
       <c r="AR4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="s">
         <v>78</v>
       </c>
       <c r="AT4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU4" t="s">
         <v>78</v>
@@ -1272,91 +1272,91 @@
         <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="S5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T5" t="s">
         <v>78</v>
       </c>
       <c r="U5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z5" t="s">
         <v>78</v>
       </c>
       <c r="AA5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AB5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD5" t="s">
         <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s">
         <v>78</v>
@@ -1365,16 +1365,16 @@
         <v>78</v>
       </c>
       <c r="AH5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ5" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL5" t="s">
         <v>78</v>
@@ -1386,25 +1386,25 @@
         <v>78</v>
       </c>
       <c r="AO5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ5" t="s">
         <v>78</v>
       </c>
       <c r="AR5" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AS5" t="s">
         <v>78</v>
       </c>
       <c r="AT5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1415,139 +1415,139 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>86</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" t="s">
+        <v>81</v>
+      </c>
+      <c r="V6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU6" t="s">
         <v>85</v>
-      </c>
-      <c r="D6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>78</v>
-      </c>
-      <c r="R6" t="s">
-        <v>85</v>
-      </c>
-      <c r="S6" t="s">
-        <v>85</v>
-      </c>
-      <c r="T6" t="s">
-        <v>85</v>
-      </c>
-      <c r="U6" t="s">
-        <v>78</v>
-      </c>
-      <c r="V6" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" t="s">
-        <v>85</v>
-      </c>
-      <c r="X6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1558,136 +1558,136 @@
         <v>78</v>
       </c>
       <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD7" t="s">
         <v>85</v>
       </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
-        <v>85</v>
-      </c>
-      <c r="N7" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" t="s">
-        <v>85</v>
-      </c>
-      <c r="T7" t="s">
-        <v>85</v>
-      </c>
-      <c r="U7" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" t="s">
-        <v>85</v>
-      </c>
-      <c r="W7" t="s">
-        <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>78</v>
-      </c>
       <c r="AE7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s">
         <v>78</v>
       </c>
       <c r="AG7" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ7" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM7" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS7" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AT7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU7" t="s">
         <v>78</v>
@@ -1701,133 +1701,133 @@
         <v>78</v>
       </c>
       <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" t="s">
+        <v>95</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s">
+        <v>91</v>
+      </c>
+      <c r="X8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" t="s">
         <v>85</v>
       </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" t="s">
-        <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>78</v>
-      </c>
-      <c r="O8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S8" t="s">
-        <v>85</v>
-      </c>
-      <c r="T8" t="s">
-        <v>85</v>
-      </c>
-      <c r="U8" t="s">
-        <v>81</v>
-      </c>
-      <c r="V8" t="s">
-        <v>78</v>
-      </c>
-      <c r="W8" t="s">
-        <v>78</v>
-      </c>
-      <c r="X8" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>78</v>
-      </c>
       <c r="AH8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AL8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AN8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO8" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AP8" t="s">
         <v>78</v>
       </c>
       <c r="AQ8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AT8" t="s">
         <v>78</v>
@@ -1844,139 +1844,139 @@
         <v>78</v>
       </c>
       <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>97</v>
+      </c>
+      <c r="P9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" t="s">
+        <v>88</v>
+      </c>
+      <c r="V9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W9" t="s">
         <v>85</v>
       </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" t="s">
-        <v>78</v>
-      </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" t="s">
-        <v>78</v>
-      </c>
-      <c r="N9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O9" t="s">
-        <v>78</v>
-      </c>
-      <c r="P9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T9" t="s">
-        <v>85</v>
-      </c>
-      <c r="U9" t="s">
-        <v>85</v>
-      </c>
-      <c r="V9" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" t="s">
-        <v>78</v>
-      </c>
       <c r="X9" t="s">
         <v>78</v>
       </c>
       <c r="Y9" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="Z9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AD9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG9" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH9" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AI9" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK9" t="s">
         <v>78</v>
       </c>
       <c r="AL9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM9" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO9" t="s">
         <v>78</v>
       </c>
       <c r="AP9" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AQ9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS9" t="s">
         <v>78</v>
       </c>
       <c r="AT9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AU9" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -1987,34 +1987,34 @@
         <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
         <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
         <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
         <v>78</v>
@@ -2023,94 +2023,94 @@
         <v>78</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="R10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U10" t="s">
         <v>78</v>
       </c>
       <c r="V10" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="X10" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="Y10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK10" t="s">
         <v>78</v>
       </c>
       <c r="AL10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM10" t="s">
         <v>78</v>
       </c>
       <c r="AN10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO10" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="AP10" t="s">
         <v>78</v>
       </c>
       <c r="AQ10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS10" t="s">
         <v>78</v>
@@ -2119,7 +2119,7 @@
         <v>78</v>
       </c>
       <c r="AU10" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2127,25 +2127,25 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
         <v>78</v>
@@ -2157,13 +2157,13 @@
         <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
         <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
         <v>78</v>
@@ -2172,19 +2172,19 @@
         <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V11" t="s">
         <v>78</v>
@@ -2193,34 +2193,34 @@
         <v>78</v>
       </c>
       <c r="X11" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="Y11" t="s">
         <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
         <v>78</v>
       </c>
       <c r="AD11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AH11" t="s">
         <v>78</v>
@@ -2229,31 +2229,31 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK11" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AL11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM11" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AN11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO11" t="s">
         <v>78</v>
       </c>
       <c r="AP11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS11" t="s">
         <v>78</v>
@@ -2270,139 +2270,139 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
         <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
         <v>78</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="N12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
         <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
         <v>78</v>
       </c>
       <c r="W12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC12" t="s">
         <v>78</v>
       </c>
       <c r="AD12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AE12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AH12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK12" t="s">
         <v>78</v>
       </c>
       <c r="AL12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM12" t="s">
         <v>78</v>
       </c>
       <c r="AN12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AQ12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS12" t="s">
         <v>78</v>
       </c>
       <c r="AT12" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU12" t="s">
         <v>78</v>
@@ -2419,79 +2419,79 @@
         <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s">
         <v>78</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="N13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q13" t="s">
         <v>78</v>
       </c>
       <c r="R13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
         <v>78</v>
       </c>
       <c r="W13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="Z13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC13" t="s">
         <v>78</v>
@@ -2503,52 +2503,52 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AG13" t="s">
         <v>78</v>
       </c>
       <c r="AH13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AL13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM13" t="s">
         <v>78</v>
       </c>
       <c r="AN13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
         <v>78</v>
       </c>
       <c r="AQ13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="AT13" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2562,13 +2562,13 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -2577,28 +2577,28 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" t="s">
         <v>78</v>
       </c>
       <c r="N14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q14" t="s">
         <v>78</v>
@@ -2607,22 +2607,22 @@
         <v>78</v>
       </c>
       <c r="S14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V14" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="W14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s">
         <v>78</v>
@@ -2631,16 +2631,16 @@
         <v>78</v>
       </c>
       <c r="AA14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC14" t="s">
         <v>78</v>
       </c>
       <c r="AD14" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s">
         <v>78</v>
@@ -2652,16 +2652,16 @@
         <v>78</v>
       </c>
       <c r="AH14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ14" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AK14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL14" t="s">
         <v>78</v>
@@ -2670,25 +2670,25 @@
         <v>78</v>
       </c>
       <c r="AN14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP14" t="s">
         <v>78</v>
       </c>
       <c r="AQ14" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="AR14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS14" t="s">
         <v>78</v>
       </c>
       <c r="AT14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU14" t="s">
         <v>78</v>
@@ -2702,46 +2702,46 @@
         <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
         <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
         <v>78</v>
@@ -2750,25 +2750,25 @@
         <v>78</v>
       </c>
       <c r="S15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z15" t="s">
         <v>78</v>
@@ -2777,13 +2777,13 @@
         <v>78</v>
       </c>
       <c r="AB15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD15" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AE15" t="s">
         <v>78</v>
@@ -2792,19 +2792,19 @@
         <v>78</v>
       </c>
       <c r="AG15" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AH15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ15" t="s">
         <v>78</v>
       </c>
       <c r="AK15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s">
         <v>78</v>
@@ -2816,22 +2816,22 @@
         <v>78</v>
       </c>
       <c r="AO15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ15" t="s">
         <v>78</v>
       </c>
       <c r="AR15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AS15" t="s">
         <v>78</v>
       </c>
       <c r="AT15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU15" t="s">
         <v>78</v>
@@ -2842,142 +2842,142 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" t="s">
+        <v>88</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>78</v>
+      </c>
+      <c r="R16" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" t="s">
+        <v>88</v>
+      </c>
+      <c r="T16" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" t="s">
+        <v>91</v>
+      </c>
+      <c r="V16" t="s">
+        <v>88</v>
+      </c>
+      <c r="W16" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL16" t="s">
         <v>85</v>
       </c>
-      <c r="D16" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" t="s">
-        <v>85</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
-        <v>85</v>
-      </c>
-      <c r="O16" t="s">
-        <v>85</v>
-      </c>
-      <c r="P16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>96</v>
-      </c>
-      <c r="R16" t="s">
-        <v>85</v>
-      </c>
-      <c r="S16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" t="s">
-        <v>85</v>
-      </c>
-      <c r="X16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>78</v>
-      </c>
       <c r="AM16" t="s">
         <v>78</v>
       </c>
       <c r="AN16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO16" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AP16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR16" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AS16" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AT16" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:47">
@@ -2985,142 +2985,142 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U17" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="V17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z17" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD17" t="s">
         <v>78</v>
       </c>
       <c r="AE17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF17" t="s">
         <v>78</v>
       </c>
       <c r="AG17" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AH17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ17" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM17" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="AN17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU17" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:47">
@@ -3128,136 +3128,136 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" t="s">
         <v>85</v>
       </c>
-      <c r="D18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H18" t="s">
-        <v>85</v>
-      </c>
-      <c r="I18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" t="s">
-        <v>78</v>
-      </c>
-      <c r="N18" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" t="s">
-        <v>78</v>
-      </c>
-      <c r="P18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s">
-        <v>85</v>
-      </c>
-      <c r="S18" t="s">
-        <v>85</v>
-      </c>
-      <c r="T18" t="s">
-        <v>85</v>
-      </c>
-      <c r="U18" t="s">
-        <v>78</v>
-      </c>
       <c r="V18" t="s">
         <v>78</v>
       </c>
       <c r="W18" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="X18" t="s">
         <v>78</v>
       </c>
       <c r="Y18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC18" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AD18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AE18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s">
         <v>78</v>
       </c>
       <c r="AH18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM18" t="s">
         <v>78</v>
       </c>
       <c r="AN18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO18" t="s">
         <v>78</v>
       </c>
       <c r="AP18" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AQ18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS18" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AT18" t="s">
         <v>78</v>
@@ -3271,133 +3271,133 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" t="s">
+        <v>78</v>
+      </c>
+      <c r="N19" t="s">
+        <v>88</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>88</v>
+      </c>
+      <c r="R19" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" t="s">
+        <v>88</v>
+      </c>
+      <c r="T19" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" t="s">
+        <v>88</v>
+      </c>
+      <c r="V19" t="s">
+        <v>86</v>
+      </c>
+      <c r="W19" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" t="s">
-        <v>85</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" t="s">
-        <v>78</v>
-      </c>
-      <c r="K19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" t="s">
-        <v>78</v>
-      </c>
-      <c r="N19" t="s">
-        <v>85</v>
-      </c>
-      <c r="O19" t="s">
-        <v>78</v>
-      </c>
-      <c r="P19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>85</v>
-      </c>
-      <c r="R19" t="s">
-        <v>85</v>
-      </c>
-      <c r="S19" t="s">
-        <v>85</v>
-      </c>
-      <c r="T19" t="s">
-        <v>85</v>
-      </c>
-      <c r="U19" t="s">
-        <v>85</v>
-      </c>
-      <c r="V19" t="s">
-        <v>78</v>
-      </c>
-      <c r="W19" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>78</v>
-      </c>
       <c r="AP19" t="s">
         <v>78</v>
       </c>
       <c r="AQ19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS19" t="s">
         <v>78</v>
@@ -3417,25 +3417,25 @@
         <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
         <v>78</v>
@@ -3444,91 +3444,91 @@
         <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
         <v>78</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="P20" t="s">
         <v>78</v>
       </c>
       <c r="Q20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
         <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="W20" t="s">
         <v>78</v>
       </c>
       <c r="X20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC20" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s">
         <v>78</v>
       </c>
       <c r="AE20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s">
         <v>78</v>
       </c>
       <c r="AH20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK20" t="s">
         <v>78</v>
       </c>
       <c r="AL20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM20" t="s">
         <v>78</v>
       </c>
       <c r="AN20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO20" t="s">
         <v>78</v>
@@ -3537,19 +3537,19 @@
         <v>78</v>
       </c>
       <c r="AQ20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR20" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS20" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AT20" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AU20" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:47">
@@ -3557,25 +3557,25 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
         <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
         <v>78</v>
@@ -3584,37 +3584,37 @@
         <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
+        <v>78</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O21" t="s">
         <v>93</v>
       </c>
-      <c r="N21" t="s">
-        <v>85</v>
-      </c>
-      <c r="O21" t="s">
-        <v>78</v>
-      </c>
       <c r="P21" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="Q21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V21" t="s">
         <v>78</v>
@@ -3629,49 +3629,49 @@
         <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC21" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="AJ21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK21" t="s">
         <v>78</v>
       </c>
       <c r="AL21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM21" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO21" t="s">
         <v>78</v>
@@ -3680,19 +3680,19 @@
         <v>78</v>
       </c>
       <c r="AQ21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR21" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS21" t="s">
         <v>78</v>
       </c>
       <c r="AT21" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="AU21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:47">
@@ -3703,25 +3703,25 @@
         <v>78</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
         <v>78</v>
@@ -3730,7 +3730,7 @@
         <v>78</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
         <v>78</v>
@@ -3745,16 +3745,16 @@
         <v>78</v>
       </c>
       <c r="Q22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U22" t="s">
         <v>78</v>
@@ -3769,52 +3769,52 @@
         <v>78</v>
       </c>
       <c r="Y22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC22" t="s">
         <v>78</v>
       </c>
       <c r="AD22" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG22" t="s">
         <v>78</v>
       </c>
       <c r="AH22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK22" t="s">
         <v>78</v>
       </c>
       <c r="AL22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM22" t="s">
         <v>78</v>
       </c>
       <c r="AN22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO22" t="s">
         <v>78</v>
@@ -3823,16 +3823,16 @@
         <v>78</v>
       </c>
       <c r="AQ22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR22" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS22" t="s">
         <v>78</v>
       </c>
       <c r="AT22" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AU22" t="s">
         <v>78</v>
@@ -3843,25 +3843,25 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
         <v>78</v>
@@ -3873,37 +3873,37 @@
         <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="N23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O23" t="s">
         <v>78</v>
       </c>
       <c r="P23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V23" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s">
         <v>78</v>
@@ -3912,28 +3912,28 @@
         <v>78</v>
       </c>
       <c r="Y23" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC23" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AD23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="s">
         <v>78</v>
@@ -3945,19 +3945,19 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK23" t="s">
         <v>78</v>
       </c>
       <c r="AL23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM23" t="s">
         <v>78</v>
       </c>
       <c r="AN23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO23" t="s">
         <v>78</v>
@@ -3966,10 +3966,10 @@
         <v>78</v>
       </c>
       <c r="AQ23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS23" t="s">
         <v>78</v>
@@ -3989,34 +3989,34 @@
         <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K24" t="s">
         <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
         <v>78</v>
@@ -4025,7 +4025,7 @@
         <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P24" t="s">
         <v>78</v>
@@ -4034,73 +4034,73 @@
         <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U24" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="V24" t="s">
         <v>78</v>
       </c>
       <c r="W24" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s">
         <v>78</v>
       </c>
       <c r="Y24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC24" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s">
         <v>78</v>
       </c>
       <c r="AE24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG24" t="s">
         <v>78</v>
       </c>
       <c r="AH24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK24" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM24" t="s">
         <v>78</v>
       </c>
       <c r="AN24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO24" t="s">
         <v>78</v>
@@ -4109,10 +4109,10 @@
         <v>78</v>
       </c>
       <c r="AQ24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS24" t="s">
         <v>78</v>
@@ -4132,22 +4132,22 @@
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
         <v>78</v>
@@ -4156,40 +4156,40 @@
         <v>78</v>
       </c>
       <c r="K25" t="s">
+        <v>78</v>
+      </c>
+      <c r="L25" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" t="s">
         <v>80</v>
       </c>
-      <c r="L25" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" t="s">
-        <v>78</v>
-      </c>
       <c r="N25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O25" t="s">
         <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V25" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="W25" t="s">
         <v>78</v>
@@ -4201,25 +4201,25 @@
         <v>78</v>
       </c>
       <c r="Z25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC25" t="s">
         <v>78</v>
       </c>
       <c r="AD25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG25" t="s">
         <v>78</v>
@@ -4231,19 +4231,19 @@
         <v>78</v>
       </c>
       <c r="AJ25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK25" t="s">
         <v>78</v>
       </c>
       <c r="AL25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM25" t="s">
         <v>78</v>
       </c>
       <c r="AN25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO25" t="s">
         <v>78</v>
@@ -4252,10 +4252,10 @@
         <v>78</v>
       </c>
       <c r="AQ25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR25" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS25" t="s">
         <v>78</v>
@@ -4272,142 +4272,142 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
         <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
         <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V26" t="s">
         <v>78</v>
       </c>
       <c r="W26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC26" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AD26" t="s">
         <v>78</v>
       </c>
       <c r="AE26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG26" t="s">
         <v>78</v>
       </c>
       <c r="AH26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK26" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AL26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM26" t="s">
         <v>78</v>
       </c>
       <c r="AN26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP26" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AQ26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS26" t="s">
         <v>78</v>
       </c>
       <c r="AT26" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU26" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:47">
@@ -4418,88 +4418,88 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
         <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s">
         <v>89</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" t="s">
         <v>94</v>
       </c>
-      <c r="N27" t="s">
-        <v>85</v>
-      </c>
-      <c r="O27" t="s">
-        <v>85</v>
-      </c>
-      <c r="P27" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>78</v>
-      </c>
       <c r="R27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V27" t="s">
         <v>78</v>
       </c>
       <c r="W27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y27" t="s">
         <v>78</v>
       </c>
       <c r="Z27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC27" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AD27" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s">
         <v>78</v>
@@ -4511,43 +4511,43 @@
         <v>78</v>
       </c>
       <c r="AH27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK27" t="s">
         <v>78</v>
       </c>
       <c r="AL27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM27" t="s">
         <v>78</v>
       </c>
       <c r="AN27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP27" t="s">
         <v>78</v>
       </c>
       <c r="AQ27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS27" t="s">
         <v>78</v>
       </c>
       <c r="AT27" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU27" t="s">
         <v>78</v>
@@ -4564,43 +4564,43 @@
         <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
         <v>78</v>
       </c>
       <c r="I28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M28" t="s">
         <v>78</v>
       </c>
       <c r="N28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q28" t="s">
         <v>78</v>
@@ -4609,22 +4609,22 @@
         <v>78</v>
       </c>
       <c r="S28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V28" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y28" t="s">
         <v>78</v>
@@ -4633,37 +4633,37 @@
         <v>78</v>
       </c>
       <c r="AA28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC28" t="s">
         <v>78</v>
       </c>
       <c r="AD28" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s">
         <v>78</v>
       </c>
       <c r="AF28" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s">
         <v>78</v>
       </c>
       <c r="AH28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ28" t="s">
         <v>78</v>
       </c>
       <c r="AK28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL28" t="s">
         <v>78</v>
@@ -4672,25 +4672,25 @@
         <v>78</v>
       </c>
       <c r="AN28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP28" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AQ28" t="s">
         <v>78</v>
       </c>
       <c r="AR28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS28" t="s">
         <v>78</v>
       </c>
       <c r="AT28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU28" t="s">
         <v>78</v>
@@ -4704,73 +4704,73 @@
         <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q29" t="s">
         <v>78</v>
       </c>
       <c r="R29" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="S29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T29" t="s">
         <v>78</v>
       </c>
       <c r="U29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z29" t="s">
         <v>78</v>
@@ -4779,10 +4779,10 @@
         <v>78</v>
       </c>
       <c r="AB29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD29" t="s">
         <v>78</v>
@@ -4797,31 +4797,31 @@
         <v>78</v>
       </c>
       <c r="AH29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ29" t="s">
         <v>78</v>
       </c>
       <c r="AK29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL29" t="s">
         <v>78</v>
       </c>
       <c r="AM29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AN29" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AO29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ29" t="s">
         <v>78</v>
@@ -4833,10 +4833,10 @@
         <v>78</v>
       </c>
       <c r="AT29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU29" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:47">
@@ -4844,139 +4844,139 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q30" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="R30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U30" t="s">
         <v>78</v>
       </c>
       <c r="V30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z30" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AA30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AD30" t="s">
         <v>78</v>
       </c>
       <c r="AE30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF30" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="AG30" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ30" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AK30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL30" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AM30" t="s">
         <v>98</v>
       </c>
       <c r="AN30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO30" t="s">
         <v>78</v>
       </c>
       <c r="AP30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR30" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AS30" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AT30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU30" t="s">
         <v>78</v>
@@ -4987,142 +4987,142 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q31" t="s">
         <v>78</v>
       </c>
       <c r="R31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U31" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="V31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="W31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="X31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Y31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ31" t="s">
         <v>81</v>
       </c>
-      <c r="AA31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>78</v>
-      </c>
       <c r="AK31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AL31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM31" t="s">
         <v>78</v>
       </c>
       <c r="AN31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AP31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AQ31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS31" t="s">
         <v>78</v>
       </c>
       <c r="AT31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AU31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:47">
@@ -5130,43 +5130,43 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
         <v>78</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s">
         <v>78</v>
       </c>
       <c r="L32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
         <v>78</v>
       </c>
       <c r="N32" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="O32" t="s">
         <v>78</v>
@@ -5178,94 +5178,94 @@
         <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U32" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="V32" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="W32" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="X32" t="s">
         <v>78</v>
       </c>
       <c r="Y32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Z32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC32" t="s">
         <v>78</v>
       </c>
       <c r="AD32" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AE32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AH32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AJ32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK32" t="s">
         <v>78</v>
       </c>
       <c r="AL32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM32" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AN32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AP32" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AQ32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR32" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS32" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AT32" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AU32" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:47">
@@ -5276,61 +5276,61 @@
         <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
         <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="J33" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="L33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
         <v>78</v>
       </c>
       <c r="N33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P33" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Q33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="U33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="V33" t="s">
         <v>78</v>
@@ -5339,73 +5339,73 @@
         <v>78</v>
       </c>
       <c r="X33" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Z33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AA33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AB33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AC33" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AD33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AE33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AF33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AG33" t="s">
         <v>78</v>
       </c>
       <c r="AH33" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AK33" t="s">
         <v>78</v>
       </c>
       <c r="AL33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM33" t="s">
         <v>78</v>
       </c>
       <c r="AN33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AO33" t="s">
         <v>78</v>
       </c>
       <c r="AP33" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="AQ33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AR33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AS33" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AT33" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="AU33" t="s">
         <v>78</v>

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
@@ -250,88 +250,88 @@
     <t>Friday, Feb 12th, 3:30-4:00</t>
   </si>
   <si>
+    <t>McCoy, Leonard</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
+    <t>Crusher, Beverley</t>
+  </si>
+  <si>
+    <t>Rozhenko, Alexander</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Uhura, Nyota</t>
+  </si>
+  <si>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Troi, Deanna</t>
   </si>
   <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>O'Brien, Miles</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
+    <t>Worf</t>
+  </si>
+  <si>
     <t>Nerys, Kira</t>
   </si>
   <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
+    <t>Troi, Lwaxana</t>
+  </si>
+  <si>
+    <t>Ogawa, Alyssa</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Dax, Jadzia</t>
+  </si>
+  <si>
+    <t>Laren, Ro</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
   </si>
   <si>
     <t>Chekov, Pavel</t>
   </si>
   <si>
-    <t>Picard, Jean-Luc</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>Crusher, Beverley</t>
-  </si>
-  <si>
-    <t>Rozhenko, Alexander</t>
+    <t>Yar, Tasha</t>
+  </si>
+  <si>
+    <t>Sulu, Hikaru</t>
   </si>
   <si>
     <t>Janeway, Kathryn</t>
-  </si>
-  <si>
-    <t>McCoy, Leonard</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Uhura, Nyota</t>
-  </si>
-  <si>
-    <t>Troi, Lwaxana</t>
-  </si>
-  <si>
-    <t>Laren, Ro</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Sulu, Hikaru</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Ogawa, Alyssa</t>
-  </si>
-  <si>
-    <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>Worf</t>
   </si>
 </sst>
 </file>
@@ -843,139 +843,139 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AT2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -983,142 +983,142 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM3" t="s">
         <v>78</v>
       </c>
       <c r="AN3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS3" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AT3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -1126,142 +1126,142 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
         <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="R4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AE4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AG4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ4" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AR4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1269,142 +1269,142 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AO5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AR5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS5" t="s">
         <v>78</v>
       </c>
       <c r="AT5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1412,142 +1412,142 @@
         <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="V6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z6" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AA6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="AE6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AK6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="AM6" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AN6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AP6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AR6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU6" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1555,142 +1555,142 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="AA7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF7" t="s">
         <v>85</v>
       </c>
-      <c r="AE7" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>78</v>
-      </c>
       <c r="AG7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ7" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AK7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="AN7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AT7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:47">
@@ -1698,142 +1698,142 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="V8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC8" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS8" t="s">
         <v>92</v>
       </c>
-      <c r="AE8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>78</v>
-      </c>
       <c r="AT8" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AU8" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1841,142 +1841,142 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
+        <v>96</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>87</v>
+      </c>
+      <c r="R9" t="s">
+        <v>87</v>
+      </c>
+      <c r="S9" t="s">
+        <v>87</v>
+      </c>
+      <c r="T9" t="s">
+        <v>87</v>
+      </c>
+      <c r="U9" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" t="s">
+        <v>79</v>
+      </c>
+      <c r="W9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O9" t="s">
-        <v>97</v>
-      </c>
-      <c r="P9" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>88</v>
-      </c>
-      <c r="R9" t="s">
-        <v>88</v>
-      </c>
-      <c r="S9" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U9" t="s">
-        <v>88</v>
-      </c>
-      <c r="V9" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" t="s">
-        <v>85</v>
-      </c>
-      <c r="X9" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>86</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM9" t="s">
         <v>98</v>
       </c>
-      <c r="AI9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>78</v>
-      </c>
       <c r="AN9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AQ9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AU9" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -1984,142 +1984,142 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>87</v>
+      </c>
+      <c r="S10" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" t="s">
+        <v>79</v>
+      </c>
+      <c r="V10" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AU10" t="s">
         <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" t="s">
-        <v>78</v>
-      </c>
-      <c r="O10" t="s">
-        <v>78</v>
-      </c>
-      <c r="P10" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>105</v>
-      </c>
-      <c r="R10" t="s">
-        <v>88</v>
-      </c>
-      <c r="S10" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" t="s">
-        <v>78</v>
-      </c>
-      <c r="V10" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" t="s">
-        <v>102</v>
-      </c>
-      <c r="X10" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AP10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AU10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2130,139 +2130,139 @@
         <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG11" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK11" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM11" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP11" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AQ11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:47">
@@ -2270,142 +2270,142 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L12" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" t="s">
         <v>78</v>
       </c>
-      <c r="H12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s">
-        <v>78</v>
-      </c>
-      <c r="K12" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" t="s">
-        <v>96</v>
-      </c>
       <c r="N12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="W12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="AQ12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:47">
@@ -2413,142 +2413,142 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
         <v>78</v>
       </c>
       <c r="W13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Z13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC13" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AD13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS13" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AT13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2556,142 +2556,142 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V14" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y14" t="s">
         <v>78</v>
       </c>
       <c r="Z14" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AA14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL14" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AM14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AR14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:47">
@@ -2699,142 +2699,142 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L15" t="s">
+        <v>87</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" t="s">
+        <v>87</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>79</v>
+      </c>
+      <c r="R15" t="s">
+        <v>79</v>
+      </c>
+      <c r="S15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T15" t="s">
+        <v>79</v>
+      </c>
+      <c r="U15" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" t="s">
+        <v>87</v>
+      </c>
+      <c r="W15" t="s">
+        <v>87</v>
+      </c>
+      <c r="X15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR15" t="s">
         <v>78</v>
       </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" t="s">
-        <v>88</v>
-      </c>
-      <c r="M15" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" t="s">
-        <v>88</v>
-      </c>
-      <c r="O15" t="s">
-        <v>88</v>
-      </c>
-      <c r="P15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>78</v>
-      </c>
-      <c r="R15" t="s">
-        <v>78</v>
-      </c>
-      <c r="S15" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" t="s">
-        <v>94</v>
-      </c>
-      <c r="U15" t="s">
-        <v>88</v>
-      </c>
-      <c r="V15" t="s">
-        <v>88</v>
-      </c>
-      <c r="W15" t="s">
-        <v>88</v>
-      </c>
-      <c r="X15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>78</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>90</v>
-      </c>
       <c r="AS15" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AT15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:47">
@@ -2845,139 +2845,139 @@
         <v>81</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD16" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AE16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF16" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="AG16" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AH16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="AK16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM16" t="s">
         <v>85</v>
       </c>
-      <c r="AM16" t="s">
-        <v>78</v>
-      </c>
       <c r="AN16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AP16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="AS16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AT16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU16" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:47">
@@ -2988,139 +2988,139 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="V17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF17" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AG17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AN17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU17" t="s">
         <v>81</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>88</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:47">
@@ -3128,142 +3128,142 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" t="s">
+        <v>85</v>
+      </c>
+      <c r="O18" t="s">
+        <v>100</v>
+      </c>
+      <c r="P18" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S18" t="s">
+        <v>87</v>
+      </c>
+      <c r="T18" t="s">
+        <v>87</v>
+      </c>
+      <c r="U18" t="s">
         <v>92</v>
       </c>
-      <c r="F18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" t="s">
-        <v>88</v>
-      </c>
-      <c r="I18" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" t="s">
-        <v>87</v>
-      </c>
-      <c r="K18" t="s">
-        <v>100</v>
-      </c>
-      <c r="L18" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" t="s">
-        <v>91</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="V18" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" t="s">
+        <v>90</v>
+      </c>
+      <c r="X18" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT18" t="s">
         <v>81</v>
       </c>
-      <c r="P18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>78</v>
-      </c>
-      <c r="R18" t="s">
-        <v>88</v>
-      </c>
-      <c r="S18" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" t="s">
-        <v>88</v>
-      </c>
-      <c r="U18" t="s">
-        <v>85</v>
-      </c>
-      <c r="V18" t="s">
-        <v>78</v>
-      </c>
-      <c r="W18" t="s">
-        <v>82</v>
-      </c>
-      <c r="X18" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR18" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AT18" t="s">
-        <v>78</v>
-      </c>
       <c r="AU18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:47">
@@ -3271,142 +3271,142 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="P19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="W19" t="s">
+        <v>82</v>
+      </c>
+      <c r="X19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO19" t="s">
         <v>98</v>
       </c>
-      <c r="X19" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>82</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO19" t="s">
+      <c r="AP19" t="s">
         <v>85</v>
       </c>
-      <c r="AP19" t="s">
-        <v>78</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:47">
@@ -3414,142 +3414,142 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I20" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" t="s">
+        <v>79</v>
+      </c>
+      <c r="N20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" t="s">
+        <v>87</v>
+      </c>
+      <c r="S20" t="s">
+        <v>87</v>
+      </c>
+      <c r="T20" t="s">
+        <v>87</v>
+      </c>
+      <c r="U20" t="s">
+        <v>79</v>
+      </c>
+      <c r="V20" t="s">
+        <v>79</v>
+      </c>
+      <c r="W20" t="s">
+        <v>79</v>
+      </c>
+      <c r="X20" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS20" t="s">
         <v>88</v>
       </c>
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L20" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" t="s">
-        <v>88</v>
-      </c>
-      <c r="S20" t="s">
-        <v>88</v>
-      </c>
-      <c r="T20" t="s">
-        <v>88</v>
-      </c>
-      <c r="U20" t="s">
-        <v>78</v>
-      </c>
-      <c r="V20" t="s">
-        <v>104</v>
-      </c>
-      <c r="W20" t="s">
-        <v>78</v>
-      </c>
-      <c r="X20" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>105</v>
-      </c>
       <c r="AT20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:47">
@@ -3557,142 +3557,142 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
         <v>88</v>
       </c>
-      <c r="D21" t="s">
-        <v>88</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="s">
+        <v>79</v>
+      </c>
+      <c r="N21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O21" t="s">
         <v>101</v>
       </c>
-      <c r="L21" t="s">
-        <v>88</v>
-      </c>
-      <c r="M21" t="s">
-        <v>78</v>
-      </c>
-      <c r="N21" t="s">
-        <v>88</v>
-      </c>
-      <c r="O21" t="s">
-        <v>93</v>
-      </c>
       <c r="P21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" t="s">
+        <v>87</v>
+      </c>
+      <c r="S21" t="s">
+        <v>87</v>
+      </c>
+      <c r="T21" t="s">
+        <v>87</v>
+      </c>
+      <c r="U21" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" t="s">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI21" t="s">
         <v>104</v>
       </c>
-      <c r="Q21" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" t="s">
-        <v>88</v>
-      </c>
-      <c r="S21" t="s">
-        <v>88</v>
-      </c>
-      <c r="T21" t="s">
-        <v>88</v>
-      </c>
-      <c r="U21" t="s">
-        <v>88</v>
-      </c>
-      <c r="V21" t="s">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT21" t="s">
         <v>105</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>102</v>
-      </c>
       <c r="AU21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:47">
@@ -3700,142 +3700,142 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="Y22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:47">
@@ -3843,142 +3843,142 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M23" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC23" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT23" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AU23" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:47">
@@ -3986,142 +3986,142 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="N24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="V24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="Y24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:47">
@@ -4129,142 +4129,142 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AU25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:47">
@@ -4272,142 +4272,142 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="s">
+        <v>87</v>
+      </c>
+      <c r="O26" t="s">
+        <v>87</v>
+      </c>
+      <c r="P26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>79</v>
+      </c>
+      <c r="R26" t="s">
+        <v>87</v>
+      </c>
+      <c r="S26" t="s">
+        <v>87</v>
+      </c>
+      <c r="T26" t="s">
+        <v>87</v>
+      </c>
+      <c r="U26" t="s">
+        <v>87</v>
+      </c>
+      <c r="V26" t="s">
+        <v>79</v>
+      </c>
+      <c r="W26" t="s">
+        <v>87</v>
+      </c>
+      <c r="X26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP26" t="s">
         <v>78</v>
       </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s">
-        <v>88</v>
-      </c>
-      <c r="I26" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" t="s">
-        <v>78</v>
-      </c>
-      <c r="K26" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" t="s">
-        <v>88</v>
-      </c>
-      <c r="M26" t="s">
-        <v>78</v>
-      </c>
-      <c r="N26" t="s">
-        <v>88</v>
-      </c>
-      <c r="O26" t="s">
-        <v>88</v>
-      </c>
-      <c r="P26" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>78</v>
-      </c>
-      <c r="R26" t="s">
-        <v>88</v>
-      </c>
-      <c r="S26" t="s">
-        <v>88</v>
-      </c>
-      <c r="T26" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" t="s">
-        <v>88</v>
-      </c>
-      <c r="V26" t="s">
-        <v>78</v>
-      </c>
-      <c r="W26" t="s">
-        <v>88</v>
-      </c>
-      <c r="X26" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>90</v>
-      </c>
       <c r="AQ26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU26" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:47">
@@ -4415,142 +4415,142 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" t="s">
-        <v>89</v>
-      </c>
       <c r="K27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q27" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="R27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC27" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AF27" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG27" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:47">
@@ -4558,142 +4558,142 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AD28" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AE28" t="s">
         <v>78</v>
       </c>
       <c r="AF28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP28" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AQ28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AR28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:47">
@@ -4701,142 +4701,142 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="R29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T29" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="U29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AB29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AK29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ29" t="s">
         <v>78</v>
       </c>
       <c r="AR29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AS29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT29" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU29" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:47">
@@ -4844,142 +4844,142 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" t="s">
+        <v>87</v>
+      </c>
+      <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" t="s">
+        <v>87</v>
+      </c>
+      <c r="O30" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" t="s">
+        <v>87</v>
+      </c>
+      <c r="S30" t="s">
+        <v>87</v>
+      </c>
+      <c r="T30" t="s">
+        <v>87</v>
+      </c>
+      <c r="U30" t="s">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s">
+        <v>87</v>
+      </c>
+      <c r="W30" t="s">
+        <v>87</v>
+      </c>
+      <c r="X30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>85</v>
       </c>
-      <c r="C30" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" t="s">
-        <v>88</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" t="s">
-        <v>88</v>
-      </c>
-      <c r="K30" t="s">
-        <v>88</v>
-      </c>
-      <c r="L30" t="s">
-        <v>88</v>
-      </c>
-      <c r="M30" t="s">
-        <v>88</v>
-      </c>
-      <c r="N30" t="s">
-        <v>88</v>
-      </c>
-      <c r="O30" t="s">
-        <v>88</v>
-      </c>
-      <c r="P30" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q30" t="s">
+      <c r="AK30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO30" t="s">
         <v>92</v>
       </c>
-      <c r="R30" t="s">
-        <v>88</v>
-      </c>
-      <c r="S30" t="s">
-        <v>88</v>
-      </c>
-      <c r="T30" t="s">
-        <v>88</v>
-      </c>
-      <c r="U30" t="s">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s">
-        <v>88</v>
-      </c>
-      <c r="W30" t="s">
-        <v>88</v>
-      </c>
-      <c r="X30" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>98</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>78</v>
-      </c>
       <c r="AP30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR30" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="AS30" t="s">
         <v>100</v>
       </c>
       <c r="AT30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU30" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:47">
@@ -4987,142 +4987,142 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U31" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="V31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z31" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="AA31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AD31" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AE31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF31" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AG31" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AH31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AJ31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AL31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AU31" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:47">
@@ -5130,142 +5130,142 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E32" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="L32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O32" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="Q32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U32" t="s">
         <v>100</v>
       </c>
       <c r="V32" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Y32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC32" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AD32" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM32" t="s">
         <v>82</v>
       </c>
-      <c r="AE32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG32" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM32" t="s">
-        <v>86</v>
-      </c>
       <c r="AN32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AP32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS32" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AT32" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="AU32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:47">
@@ -5273,142 +5273,142 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="K33" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="L33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="P33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AA33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AB33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC33" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AE33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AO33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AP33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AQ33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AS33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AT33" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AU33" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
+++ b/RemoteYearBot/SampleData_RealAnon2020/fromBot_FacultySchedules.xlsx
@@ -250,88 +250,88 @@
     <t>Friday, Feb 12th, 3:30-4:00</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Laren, Ro</t>
+  </si>
+  <si>
+    <t>Troi, Lwaxana</t>
+  </si>
+  <si>
+    <t>Uhura, Nyota</t>
+  </si>
+  <si>
+    <t>O'Brien, Miles</t>
+  </si>
+  <si>
+    <t>Chekov, Pavel</t>
+  </si>
+  <si>
+    <t>Nechayev, Alynna</t>
+  </si>
+  <si>
+    <t>Ogawa, Alyssa</t>
+  </si>
+  <si>
+    <t>Nerys, Kira</t>
+  </si>
+  <si>
+    <t>Guinan</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>Bashir, Julian</t>
+  </si>
+  <si>
+    <t>Worf</t>
+  </si>
+  <si>
+    <t>Sisko, Benjamin</t>
+  </si>
+  <si>
     <t>McCoy, Leonard</t>
   </si>
   <si>
-    <t>open</t>
+    <t>Crusher, Wesley</t>
+  </si>
+  <si>
+    <t>Rozhenko, Alexander</t>
+  </si>
+  <si>
+    <t>Kirk, James T.</t>
+  </si>
+  <si>
+    <t>La Forge, Geordi</t>
+  </si>
+  <si>
+    <t>Borg Queen, The</t>
+  </si>
+  <si>
+    <t>Janeway, Kathryn</t>
+  </si>
+  <si>
+    <t>Sulu, Hikaru</t>
+  </si>
+  <si>
+    <t>Picard, Jean-Luc</t>
+  </si>
+  <si>
+    <t>Torres, B'Elanna</t>
+  </si>
+  <si>
+    <t>Troi, Deanna</t>
   </si>
   <si>
     <t>Crusher, Beverley</t>
   </si>
   <si>
-    <t>Rozhenko, Alexander</t>
-  </si>
-  <si>
-    <t>Bashir, Julian</t>
-  </si>
-  <si>
-    <t>Guinan</t>
-  </si>
-  <si>
-    <t>La Forge, Geordi</t>
-  </si>
-  <si>
-    <t>Uhura, Nyota</t>
-  </si>
-  <si>
-    <t>Crusher, Wesley</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>Troi, Deanna</t>
-  </si>
-  <si>
-    <t>Kirk, James T.</t>
-  </si>
-  <si>
-    <t>O'Brien, Miles</t>
-  </si>
-  <si>
-    <t>Sisko, Benjamin</t>
-  </si>
-  <si>
-    <t>Borg Queen, The</t>
-  </si>
-  <si>
-    <t>Torres, B'Elanna</t>
-  </si>
-  <si>
-    <t>Worf</t>
-  </si>
-  <si>
-    <t>Nerys, Kira</t>
-  </si>
-  <si>
-    <t>Troi, Lwaxana</t>
-  </si>
-  <si>
-    <t>Ogawa, Alyssa</t>
-  </si>
-  <si>
-    <t>Picard, Jean-Luc</t>
+    <t>Yar, Tasha</t>
   </si>
   <si>
     <t>Dax, Jadzia</t>
-  </si>
-  <si>
-    <t>Laren, Ro</t>
-  </si>
-  <si>
-    <t>Nechayev, Alynna</t>
-  </si>
-  <si>
-    <t>Chekov, Pavel</t>
-  </si>
-  <si>
-    <t>Yar, Tasha</t>
-  </si>
-  <si>
-    <t>Sulu, Hikaru</t>
-  </si>
-  <si>
-    <t>Janeway, Kathryn</t>
   </si>
 </sst>
 </file>
@@ -843,139 +843,139 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>88</v>
+      </c>
+      <c r="P2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" t="s">
+        <v>78</v>
+      </c>
+      <c r="W2" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" t="s">
-        <v>87</v>
-      </c>
-      <c r="M2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>79</v>
-      </c>
-      <c r="R2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S2" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" t="s">
-        <v>87</v>
-      </c>
-      <c r="V2" t="s">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>79</v>
-      </c>
       <c r="AE2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AL2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AN2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AT2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:47">
@@ -983,142 +983,142 @@
         <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U3" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG3" t="s">
         <v>87</v>
       </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" t="s">
-        <v>87</v>
-      </c>
-      <c r="S3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U3" t="s">
-        <v>87</v>
-      </c>
-      <c r="V3" t="s">
-        <v>79</v>
-      </c>
-      <c r="W3" t="s">
-        <v>87</v>
-      </c>
-      <c r="X3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>79</v>
-      </c>
       <c r="AH3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM3" t="s">
         <v>78</v>
       </c>
       <c r="AN3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:47">
@@ -1126,142 +1126,142 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" t="s">
+        <v>88</v>
+      </c>
+      <c r="T4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL4" t="s">
         <v>87</v>
       </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="AM4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" t="s">
-        <v>79</v>
-      </c>
-      <c r="N4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R4" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" t="s">
-        <v>87</v>
-      </c>
-      <c r="T4" t="s">
-        <v>87</v>
-      </c>
-      <c r="U4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V4" t="s">
-        <v>79</v>
-      </c>
-      <c r="W4" t="s">
-        <v>87</v>
-      </c>
-      <c r="X4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>79</v>
-      </c>
       <c r="AR4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:47">
@@ -1269,142 +1269,142 @@
         <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" t="s">
+        <v>88</v>
+      </c>
+      <c r="O5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" t="s">
         <v>87</v>
       </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W5" t="s">
+        <v>88</v>
+      </c>
+      <c r="X5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" t="s">
         <v>91</v>
       </c>
-      <c r="R5" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" t="s">
-        <v>87</v>
-      </c>
-      <c r="T5" t="s">
-        <v>79</v>
-      </c>
-      <c r="U5" t="s">
-        <v>87</v>
-      </c>
-      <c r="V5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>79</v>
-      </c>
       <c r="AB5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AO5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AR5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS5" t="s">
         <v>78</v>
       </c>
       <c r="AT5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:47">
@@ -1415,139 +1415,139 @@
         <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AA6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD6" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF6" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AH6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ6" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="AK6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL6" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="AM6" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AN6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="AP6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AR6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:47">
@@ -1555,142 +1555,142 @@
         <v>51</v>
       </c>
       <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>79</v>
+      </c>
+      <c r="R7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U7" t="s">
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM7" t="s">
         <v>80</v>
       </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" t="s">
-        <v>87</v>
-      </c>
-      <c r="T7" t="s">
-        <v>87</v>
-      </c>
-      <c r="U7" t="s">
-        <v>98</v>
-      </c>
-      <c r="V7" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" t="s">
-        <v>87</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>93</v>
-      </c>
       <c r="AN7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AT7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:47">
@@ -1698,142 +1698,142 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="P8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U8" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM8" t="s">
         <v>81</v>
       </c>
-      <c r="V8" t="s">
-        <v>79</v>
-      </c>
-      <c r="W8" t="s">
-        <v>79</v>
-      </c>
-      <c r="X8" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>79</v>
-      </c>
       <c r="AN8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO8" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AP8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AQ8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS8" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AT8" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AU8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:47">
@@ -1841,142 +1841,142 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E9" t="s">
         <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="W9" t="s">
+        <v>78</v>
+      </c>
+      <c r="X9" t="s">
         <v>80</v>
       </c>
-      <c r="X9" t="s">
-        <v>79</v>
-      </c>
       <c r="Y9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AH9" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM9" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AN9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO9" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AP9" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AQ9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AT9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AU9" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:47">
@@ -1984,142 +1984,142 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U10" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="V10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK10" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AL10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO10" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="AP10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT10" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="AU10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:47">
@@ -2127,142 +2127,142 @@
         <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:47">
@@ -2270,142 +2270,142 @@
         <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J12" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M12" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC12" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP12" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AQ12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:47">
@@ -2413,142 +2413,142 @@
         <v>57</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N13" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" t="s">
+        <v>88</v>
+      </c>
+      <c r="P13" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q13" t="s">
         <v>87</v>
       </c>
-      <c r="E13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13" t="s">
-        <v>87</v>
-      </c>
-      <c r="M13" t="s">
-        <v>79</v>
-      </c>
-      <c r="N13" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>79</v>
-      </c>
       <c r="R13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V13" t="s">
         <v>78</v>
       </c>
       <c r="W13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC13" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AF13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM13" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AN13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:47">
@@ -2556,142 +2556,142 @@
         <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>78</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s">
+        <v>88</v>
+      </c>
+      <c r="T14" t="s">
+        <v>88</v>
+      </c>
+      <c r="U14" t="s">
+        <v>88</v>
+      </c>
+      <c r="V14" t="s">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s">
+        <v>88</v>
+      </c>
+      <c r="X14" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP14" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L14" t="s">
-        <v>87</v>
-      </c>
-      <c r="M14" t="s">
-        <v>79</v>
-      </c>
-      <c r="N14" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" t="s">
-        <v>87</v>
-      </c>
-      <c r="P14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>79</v>
-      </c>
-      <c r="R14" t="s">
-        <v>79</v>
-      </c>
-      <c r="S14" t="s">
-        <v>87</v>
-      </c>
-      <c r="T14" t="s">
-        <v>87</v>
-      </c>
-      <c r="U14" t="s">
-        <v>87</v>
-      </c>
-      <c r="V14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W14" t="s">
-        <v>87</v>
-      </c>
-      <c r="X14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>79</v>
-      </c>
       <c r="AQ14" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AR14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:47">
@@ -2699,142 +2699,142 @@
         <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" t="s">
+        <v>88</v>
+      </c>
+      <c r="P15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>93</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
+      </c>
+      <c r="S15" t="s">
+        <v>88</v>
+      </c>
+      <c r="T15" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s">
+        <v>88</v>
+      </c>
+      <c r="V15" t="s">
+        <v>88</v>
+      </c>
+      <c r="W15" t="s">
+        <v>88</v>
+      </c>
+      <c r="X15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K15" t="s">
-        <v>87</v>
-      </c>
-      <c r="L15" t="s">
-        <v>87</v>
-      </c>
-      <c r="M15" t="s">
-        <v>87</v>
-      </c>
-      <c r="N15" t="s">
-        <v>87</v>
-      </c>
-      <c r="O15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>79</v>
-      </c>
-      <c r="R15" t="s">
-        <v>79</v>
-      </c>
-      <c r="S15" t="s">
-        <v>87</v>
-      </c>
-      <c r="T15" t="s">
-        <v>79</v>
-      </c>
-      <c r="U15" t="s">
-        <v>87</v>
-      </c>
-      <c r="V15" t="s">
-        <v>87</v>
-      </c>
-      <c r="W15" t="s">
-        <v>87</v>
-      </c>
-      <c r="X15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>79</v>
-      </c>
       <c r="AG15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AK15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AN15" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AO15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR15" t="s">
         <v>78</v>
       </c>
       <c r="AS15" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AT15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:47">
@@ -2842,142 +2842,142 @@
         <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z16" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AA16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF16" t="s">
         <v>96</v>
       </c>
       <c r="AG16" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AH16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ16" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AN16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR16" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AS16" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AT16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU16" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:47">
@@ -2985,142 +2985,142 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U17" t="s">
         <v>96</v>
       </c>
       <c r="V17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z17" t="s">
         <v>79</v>
       </c>
       <c r="AA17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS17" t="s">
         <v>80</v>
       </c>
-      <c r="AE17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>84</v>
-      </c>
       <c r="AT17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU17" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:47">
@@ -3128,142 +3128,142 @@
         <v>62</v>
       </c>
       <c r="B18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N18" t="s">
+        <v>82</v>
+      </c>
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+      <c r="P18" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>100</v>
+      </c>
+      <c r="R18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" t="s">
+        <v>88</v>
+      </c>
+      <c r="T18" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" t="s">
+        <v>78</v>
+      </c>
+      <c r="V18" t="s">
+        <v>78</v>
+      </c>
+      <c r="W18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" t="s">
-        <v>82</v>
-      </c>
-      <c r="K18" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" t="s">
-        <v>87</v>
-      </c>
-      <c r="M18" t="s">
-        <v>79</v>
-      </c>
-      <c r="N18" t="s">
-        <v>85</v>
-      </c>
-      <c r="O18" t="s">
-        <v>100</v>
-      </c>
-      <c r="P18" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>79</v>
-      </c>
-      <c r="R18" t="s">
-        <v>87</v>
-      </c>
-      <c r="S18" t="s">
-        <v>87</v>
-      </c>
-      <c r="T18" t="s">
-        <v>87</v>
-      </c>
-      <c r="U18" t="s">
-        <v>92</v>
-      </c>
-      <c r="V18" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18" t="s">
-        <v>90</v>
-      </c>
       <c r="X18" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC18" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AP18" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="AQ18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS18" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AU18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:47">
@@ -3271,142 +3271,142 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V19" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="X19" t="s">
         <v>79</v>
       </c>
       <c r="Y19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>79</v>
-      </c>
       <c r="AL19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AP19" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AQ19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS19" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AT19" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AU19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:47">
@@ -3414,142 +3414,142 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N20" t="s">
         <v>99</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="Q20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="W20" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="X20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK20" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU20" t="s">
         <v>105</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>79</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:47">
@@ -3557,142 +3557,142 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O21" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="Q21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AH21" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AI21" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP21" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AQ21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AU21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:47">
@@ -3700,142 +3700,142 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s">
         <v>95</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Y22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:47">
@@ -3843,142 +3843,142 @@
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="W23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT23" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="AU23" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:47">
@@ -3986,142 +3986,142 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U24" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="V24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO24" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="AP24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS24" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AT24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:47">
@@ -4129,142 +4129,142 @@
         <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:47">
@@ -4272,142 +4272,142 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="X26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK26" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP26" t="s">
         <v>91</v>
       </c>
-      <c r="AL26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>78</v>
-      </c>
       <c r="AQ26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:47">
@@ -4415,142 +4415,142 @@
         <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" t="s">
+        <v>88</v>
+      </c>
+      <c r="O27" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>78</v>
+      </c>
+      <c r="R27" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" t="s">
+        <v>88</v>
+      </c>
+      <c r="T27" t="s">
+        <v>88</v>
+      </c>
+      <c r="U27" t="s">
+        <v>88</v>
+      </c>
+      <c r="V27" t="s">
+        <v>78</v>
+      </c>
+      <c r="W27" t="s">
+        <v>88</v>
+      </c>
+      <c r="X27" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>93</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS27" t="s">
         <v>87</v>
       </c>
-      <c r="E27" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" t="s">
-        <v>79</v>
-      </c>
-      <c r="H27" t="s">
-        <v>87</v>
-      </c>
-      <c r="I27" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" t="s">
-        <v>78</v>
-      </c>
-      <c r="K27" t="s">
-        <v>87</v>
-      </c>
-      <c r="L27" t="s">
-        <v>87</v>
-      </c>
-      <c r="M27" t="s">
-        <v>79</v>
-      </c>
-      <c r="N27" t="s">
-        <v>87</v>
-      </c>
-      <c r="O27" t="s">
-        <v>87</v>
-      </c>
-      <c r="P27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>79</v>
-      </c>
-      <c r="R27" t="s">
-        <v>87</v>
-      </c>
-      <c r="S27" t="s">
-        <v>87</v>
-      </c>
-      <c r="T27" t="s">
-        <v>87</v>
-      </c>
-      <c r="U27" t="s">
-        <v>87</v>
-      </c>
-      <c r="V27" t="s">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s">
-        <v>87</v>
-      </c>
-      <c r="X27" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>91</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>79</v>
-      </c>
       <c r="AT27" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:47">
@@ -4558,142 +4558,142 @@
         <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" t="s">
+        <v>78</v>
+      </c>
+      <c r="N28" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" t="s">
+        <v>88</v>
+      </c>
+      <c r="P28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>78</v>
+      </c>
+      <c r="R28" t="s">
+        <v>78</v>
+      </c>
+      <c r="S28" t="s">
+        <v>88</v>
+      </c>
+      <c r="T28" t="s">
+        <v>88</v>
+      </c>
+      <c r="U28" t="s">
+        <v>88</v>
+      </c>
+      <c r="V28" t="s">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s">
+        <v>88</v>
+      </c>
+      <c r="X28" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y28" t="s">
         <v>87</v>
       </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" t="s">
-        <v>87</v>
-      </c>
-      <c r="K28" t="s">
-        <v>87</v>
-      </c>
-      <c r="L28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M28" t="s">
-        <v>79</v>
-      </c>
-      <c r="N28" t="s">
-        <v>87</v>
-      </c>
-      <c r="O28" t="s">
-        <v>87</v>
-      </c>
-      <c r="P28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>79</v>
-      </c>
-      <c r="R28" t="s">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s">
-        <v>87</v>
-      </c>
-      <c r="T28" t="s">
-        <v>87</v>
-      </c>
-      <c r="U28" t="s">
-        <v>87</v>
-      </c>
-      <c r="V28" t="s">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s">
-        <v>87</v>
-      </c>
-      <c r="X28" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>79</v>
-      </c>
       <c r="Z28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC28" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s">
         <v>91</v>
       </c>
-      <c r="AE28" t="s">
-        <v>78</v>
-      </c>
       <c r="AF28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AJ28" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AK28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AR28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:47">
@@ -4701,142 +4701,142 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>92</v>
+      </c>
+      <c r="I29" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" t="s">
+        <v>88</v>
+      </c>
+      <c r="O29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>78</v>
+      </c>
+      <c r="R29" t="s">
+        <v>78</v>
+      </c>
+      <c r="S29" t="s">
+        <v>88</v>
+      </c>
+      <c r="T29" t="s">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29" t="s">
+        <v>88</v>
+      </c>
+      <c r="W29" t="s">
+        <v>88</v>
+      </c>
+      <c r="X29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" t="s">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29" t="s">
-        <v>87</v>
-      </c>
-      <c r="K29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L29" t="s">
-        <v>87</v>
-      </c>
-      <c r="M29" t="s">
-        <v>87</v>
-      </c>
-      <c r="N29" t="s">
-        <v>87</v>
-      </c>
-      <c r="O29" t="s">
-        <v>87</v>
-      </c>
-      <c r="P29" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>86</v>
-      </c>
-      <c r="R29" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" t="s">
-        <v>87</v>
-      </c>
-      <c r="T29" t="s">
+      <c r="AB29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN29" t="s">
         <v>91</v>
       </c>
-      <c r="U29" t="s">
-        <v>87</v>
-      </c>
-      <c r="V29" t="s">
-        <v>87</v>
-      </c>
-      <c r="W29" t="s">
-        <v>87</v>
-      </c>
-      <c r="X29" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s">
-        <v>79</v>
-      </c>
       <c r="AO29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AP29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AQ29" t="s">
         <v>78</v>
       </c>
       <c r="AR29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AS29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AU29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:47">
@@ -4844,142 +4844,142 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q30" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="R30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U30" t="s">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s">
+        <v>88</v>
+      </c>
+      <c r="W30" t="s">
+        <v>88</v>
+      </c>
+      <c r="X30" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ30" t="s">
+        <v>103</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU30" t="s">
         <v>79</v>
-      </c>
-      <c r="V30" t="s">
-        <v>87</v>
-      </c>
-      <c r="W30" t="s">
-        <v>87</v>
-      </c>
-      <c r="X30" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM30" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR30" t="s">
-        <v>90</v>
-      </c>
-      <c r="AS30" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT30" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:47">
@@ -4987,142 +4987,142 @@
         <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" t="s">
+        <v>88</v>
+      </c>
+      <c r="T31" t="s">
+        <v>88</v>
+      </c>
+      <c r="U31" t="s">
+        <v>101</v>
+      </c>
+      <c r="V31" t="s">
+        <v>88</v>
+      </c>
+      <c r="W31" t="s">
+        <v>88</v>
+      </c>
+      <c r="X31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD31" t="s">
         <v>79</v>
       </c>
-      <c r="R31" t="s">
-        <v>87</v>
-      </c>
-      <c r="S31" t="s">
-        <v>87</v>
-      </c>
-      <c r="T31" t="s">
-        <v>87</v>
-      </c>
-      <c r="U31" t="s">
+      <c r="AE31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ31" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>88</v>
+      </c>
+      <c r="AU31" t="s">
         <v>80</v>
-      </c>
-      <c r="V31" t="s">
-        <v>87</v>
-      </c>
-      <c r="W31" t="s">
-        <v>87</v>
-      </c>
-      <c r="X31" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG31" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AR31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS31" t="s">
-        <v>79</v>
-      </c>
-      <c r="AT31" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU31" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:47">
@@ -5130,142 +5130,142 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J32" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="P32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="V32" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="W32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Z32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC32" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AD32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AE32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM32" t="s">
         <v>96</v>
       </c>
-      <c r="AH32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AM32" t="s">
+      <c r="AN32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP32" t="s">
         <v>82</v>
       </c>
-      <c r="AN32" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO32" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP32" t="s">
-        <v>79</v>
-      </c>
       <c r="AQ32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS32" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AT32" t="s">
         <v>79</v>
       </c>
       <c r="AU32" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:47">
@@ -5273,142 +5273,142 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="W33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AA33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AC33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AE33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AL33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AN33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AQ33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AR33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AS33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AU33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
